--- a/cypress/fixtures/Fal5-Files/Crew details including supernumeraries FAL 5-Positive-Test.xlsx
+++ b/cypress/fixtures/Fal5-Files/Crew details including supernumeraries FAL 5-Positive-Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Homeoffice\NMSW-Main\nmsw-ui\cypress\fixtures\Fal5-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA1426C-0775-4FAA-B895-972A517640E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA05009-AF89-4941-A15B-89402F5EE1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="LOCODES " sheetId="2" r:id="rId3"/>
     <sheet name="ISO 3-letter country codes" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028" iterateCount="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="1640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="1645">
   <si>
     <t xml:space="preserve">Your reference (optional). 
 For example, vessel name or voyage number
@@ -5019,14 +5019,29 @@
     <t>01/01/1975</t>
   </si>
   <si>
-    <t>01/01/1987</t>
+    <t>01/01/2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guest Relations Manager </t>
+  </si>
+  <si>
+    <t>Almazan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agus Edy          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nairobi             </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -5138,6 +5153,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -5201,7 +5223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -5765,12 +5787,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -5918,6 +5968,42 @@
     <xf numFmtId="49" fontId="16" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5960,17 +6046,6 @@
     <xf numFmtId="49" fontId="10" fillId="8" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7132,10 +7207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA980"/>
+  <dimension ref="A1:AB981"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I4" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" customHeight="1"/>
@@ -7154,14 +7229,14 @@
     <col min="28" max="16384" width="0" style="6" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="36" customFormat="1" ht="93">
+    <row r="1" spans="1:28" s="36" customFormat="1" ht="93">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="65"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="77"/>
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
       <c r="H1" s="31"/>
@@ -7184,21 +7259,21 @@
       <c r="Y1" s="34"/>
       <c r="Z1" s="35"/>
     </row>
-    <row r="2" spans="1:26" ht="30" customHeight="1">
-      <c r="A2" s="59" t="s">
+    <row r="2" spans="1:28" ht="30" customHeight="1">
+      <c r="A2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="62"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="74"/>
       <c r="M2" s="3"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -7214,7 +7289,7 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" spans="1:26" s="47" customFormat="1" ht="66.75" customHeight="1">
+    <row r="3" spans="1:28" s="47" customFormat="1" ht="66.75" customHeight="1">
       <c r="A3" s="43" t="s">
         <v>2</v>
       </c>
@@ -7266,7 +7341,7 @@
       <c r="Y3" s="45"/>
       <c r="Z3" s="46"/>
     </row>
-    <row r="4" spans="1:26" s="42" customFormat="1" ht="170.5">
+    <row r="4" spans="1:28" s="42" customFormat="1" ht="170.5">
       <c r="A4" s="37" t="s">
         <v>14</v>
       </c>
@@ -7318,7 +7393,7 @@
       <c r="Y4" s="40"/>
       <c r="Z4" s="41"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:28">
       <c r="A5" s="56" t="s">
         <v>147</v>
       </c>
@@ -7370,73 +7445,82 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="75" t="s">
+    <row r="6" spans="1:28">
+      <c r="A6" s="59" t="s">
         <v>1633</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="60" t="s">
         <v>1585</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="61" t="s">
         <v>1634</v>
       </c>
-      <c r="E6" s="76" t="s">
+      <c r="E6" s="60" t="s">
         <v>1626</v>
       </c>
-      <c r="F6" s="76" t="s">
+      <c r="F6" s="60" t="s">
         <v>1635</v>
       </c>
-      <c r="G6" s="76" t="s">
+      <c r="G6" s="60" t="s">
         <v>1636</v>
       </c>
-      <c r="H6" s="75" t="s">
+      <c r="H6" s="59" t="s">
         <v>1637</v>
       </c>
-      <c r="I6" s="76" t="s">
+      <c r="I6" s="60" t="s">
         <v>1638</v>
       </c>
-      <c r="J6" s="76" t="s">
+      <c r="J6" s="60" t="s">
         <v>1585</v>
       </c>
-      <c r="K6" s="76" t="s">
+      <c r="K6" s="60" t="s">
         <v>1585</v>
       </c>
-      <c r="L6" s="76" t="s">
+      <c r="L6" s="60" t="s">
         <v>1639</v>
       </c>
-      <c r="M6" s="78"/>
-      <c r="Z6" s="79"/>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="5"/>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="M6" s="62"/>
+      <c r="Z6" s="63"/>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="64" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B7" s="65"/>
+      <c r="C7" s="66" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D7" s="67">
+        <v>123456789</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>1640</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>1641</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>1642</v>
+      </c>
+      <c r="H7" s="66" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I7" s="68"/>
+      <c r="J7" s="66" t="s">
+        <v>1644</v>
+      </c>
+      <c r="K7" s="69" t="s">
+        <v>1275</v>
+      </c>
+      <c r="L7" s="70">
+        <v>46278</v>
+      </c>
+      <c r="M7" s="62"/>
+      <c r="Z7" s="63"/>
+      <c r="AB7"/>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -7464,7 +7548,7 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:28">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -7492,7 +7576,7 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:28">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -7520,7 +7604,7 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="5"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:28">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -7548,7 +7632,7 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:28">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -7576,7 +7660,7 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:28">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -7604,7 +7688,7 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:28">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -7632,7 +7716,7 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:28">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -7660,7 +7744,7 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:28">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -7689,18 +7773,18 @@
       <c r="Z16" s="5"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
       <c r="M17" s="8"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -7716,20 +7800,20 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="4"/>
+    <row r="18" spans="1:26">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="8"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -7745,14 +7829,14 @@
       <c r="Z18" s="5"/>
     </row>
     <row r="19" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A19" s="18"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="H19" s="17"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
@@ -30005,18 +30089,18 @@
       <c r="Z813" s="5"/>
     </row>
     <row r="814" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A814" s="10"/>
-      <c r="B814" s="4"/>
-      <c r="C814" s="4"/>
-      <c r="D814" s="4"/>
-      <c r="E814" s="4"/>
-      <c r="F814" s="4"/>
-      <c r="G814" s="4"/>
-      <c r="H814" s="4"/>
-      <c r="I814" s="4"/>
-      <c r="J814" s="4"/>
-      <c r="K814" s="4"/>
-      <c r="L814" s="4"/>
+      <c r="A814" s="18"/>
+      <c r="B814" s="18"/>
+      <c r="C814" s="18"/>
+      <c r="D814" s="18"/>
+      <c r="E814" s="18"/>
+      <c r="F814" s="18"/>
+      <c r="G814" s="18"/>
+      <c r="H814" s="18"/>
+      <c r="I814" s="18"/>
+      <c r="J814" s="18"/>
+      <c r="K814" s="18"/>
+      <c r="L814" s="18"/>
       <c r="M814" s="4"/>
       <c r="N814" s="4"/>
       <c r="O814" s="4"/>
@@ -34653,32 +34737,60 @@
       <c r="Z979" s="5"/>
     </row>
     <row r="980" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A980" s="11"/>
-      <c r="B980" s="12"/>
-      <c r="C980" s="12"/>
-      <c r="D980" s="12"/>
-      <c r="E980" s="12"/>
-      <c r="F980" s="12"/>
-      <c r="G980" s="12"/>
-      <c r="H980" s="12"/>
-      <c r="I980" s="12"/>
-      <c r="J980" s="12"/>
-      <c r="K980" s="12"/>
-      <c r="L980" s="12"/>
-      <c r="M980" s="12"/>
-      <c r="N980" s="12"/>
-      <c r="O980" s="12"/>
-      <c r="P980" s="12"/>
-      <c r="Q980" s="12"/>
-      <c r="R980" s="12"/>
-      <c r="S980" s="12"/>
-      <c r="T980" s="12"/>
-      <c r="U980" s="12"/>
-      <c r="V980" s="12"/>
-      <c r="W980" s="12"/>
-      <c r="X980" s="12"/>
-      <c r="Y980" s="12"/>
-      <c r="Z980" s="13"/>
+      <c r="A980" s="10"/>
+      <c r="B980" s="4"/>
+      <c r="C980" s="4"/>
+      <c r="D980" s="4"/>
+      <c r="E980" s="4"/>
+      <c r="F980" s="4"/>
+      <c r="G980" s="4"/>
+      <c r="H980" s="4"/>
+      <c r="I980" s="4"/>
+      <c r="J980" s="4"/>
+      <c r="K980" s="4"/>
+      <c r="L980" s="4"/>
+      <c r="M980" s="4"/>
+      <c r="N980" s="4"/>
+      <c r="O980" s="4"/>
+      <c r="P980" s="4"/>
+      <c r="Q980" s="4"/>
+      <c r="R980" s="4"/>
+      <c r="S980" s="4"/>
+      <c r="T980" s="4"/>
+      <c r="U980" s="4"/>
+      <c r="V980" s="4"/>
+      <c r="W980" s="4"/>
+      <c r="X980" s="4"/>
+      <c r="Y980" s="4"/>
+      <c r="Z980" s="5"/>
+    </row>
+    <row r="981" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A981" s="11"/>
+      <c r="B981" s="12"/>
+      <c r="C981" s="12"/>
+      <c r="D981" s="12"/>
+      <c r="E981" s="12"/>
+      <c r="F981" s="12"/>
+      <c r="G981" s="12"/>
+      <c r="H981" s="12"/>
+      <c r="I981" s="12"/>
+      <c r="J981" s="12"/>
+      <c r="K981" s="12"/>
+      <c r="L981" s="12"/>
+      <c r="M981" s="12"/>
+      <c r="N981" s="12"/>
+      <c r="O981" s="12"/>
+      <c r="P981" s="12"/>
+      <c r="Q981" s="12"/>
+      <c r="R981" s="12"/>
+      <c r="S981" s="12"/>
+      <c r="T981" s="12"/>
+      <c r="U981" s="12"/>
+      <c r="V981" s="12"/>
+      <c r="W981" s="12"/>
+      <c r="X981" s="12"/>
+      <c r="Y981" s="12"/>
+      <c r="Z981" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -39162,11 +39274,11 @@
       <c r="B1" s="25" t="s">
         <v>1116</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="78" t="s">
         <v>1117</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
       <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6">
@@ -39176,9 +39288,9 @@
       <c r="B2" s="25" t="s">
         <v>1119</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
       <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6">
@@ -39188,11 +39300,11 @@
       <c r="B3" s="25" t="s">
         <v>1121</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="84" t="s">
         <v>1122</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
@@ -41221,26 +41333,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="18390984-f7d9-4502-80ba-82ec344db5fb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="629dd2dc-abea-47e8-ba88-82202e3ee8ef" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D364DC965387FD4EAF4833DDCF640F91" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c7401bc8bddc44f3d87e6545050f3282">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="18390984-f7d9-4502-80ba-82ec344db5fb" xmlns:ns3="629dd2dc-abea-47e8-ba88-82202e3ee8ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fc3cb6a02f8baa81433631181c409fee" ns2:_="" ns3:_="">
     <xsd:import namespace="18390984-f7d9-4502-80ba-82ec344db5fb"/>
@@ -41477,10 +41569,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="18390984-f7d9-4502-80ba-82ec344db5fb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="629dd2dc-abea-47e8-ba88-82202e3ee8ef" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EF1FD61-C2E6-4843-9418-343E38DCD8AB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABE1220D-06A4-4F97-A70F-0D90EAC761EC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="18390984-f7d9-4502-80ba-82ec344db5fb"/>
+    <ds:schemaRef ds:uri="629dd2dc-abea-47e8-ba88-82202e3ee8ef"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -41497,20 +41620,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABE1220D-06A4-4F97-A70F-0D90EAC761EC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EF1FD61-C2E6-4843-9418-343E38DCD8AB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="18390984-f7d9-4502-80ba-82ec344db5fb"/>
-    <ds:schemaRef ds:uri="629dd2dc-abea-47e8-ba88-82202e3ee8ef"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/cypress/fixtures/Fal5-Files/Crew details including supernumeraries FAL 5-Positive-Test.xlsx
+++ b/cypress/fixtures/Fal5-Files/Crew details including supernumeraries FAL 5-Positive-Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Homeoffice\NMSW-Main\nmsw-ui\cypress\fixtures\Fal5-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA05009-AF89-4941-A15B-89402F5EE1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1079C32F-EBAD-4FEC-AB75-017CD56DE69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7209,8 +7209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB981"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" customHeight="1"/>
@@ -7506,7 +7506,9 @@
       <c r="H7" s="66" t="s">
         <v>1643</v>
       </c>
-      <c r="I7" s="68"/>
+      <c r="I7" s="68">
+        <v>44011</v>
+      </c>
       <c r="J7" s="66" t="s">
         <v>1644</v>
       </c>
@@ -41333,6 +41335,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="18390984-f7d9-4502-80ba-82ec344db5fb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="629dd2dc-abea-47e8-ba88-82202e3ee8ef" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D364DC965387FD4EAF4833DDCF640F91" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c7401bc8bddc44f3d87e6545050f3282">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="18390984-f7d9-4502-80ba-82ec344db5fb" xmlns:ns3="629dd2dc-abea-47e8-ba88-82202e3ee8ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fc3cb6a02f8baa81433631181c409fee" ns2:_="" ns3:_="">
     <xsd:import namespace="18390984-f7d9-4502-80ba-82ec344db5fb"/>
@@ -41569,27 +41591,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="18390984-f7d9-4502-80ba-82ec344db5fb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="629dd2dc-abea-47e8-ba88-82202e3ee8ef" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EF1FD61-C2E6-4843-9418-343E38DCD8AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8DCF1D7-99F7-4202-82A6-46959FA5E53C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="18390984-f7d9-4502-80ba-82ec344db5fb"/>
+    <ds:schemaRef ds:uri="629dd2dc-abea-47e8-ba88-82202e3ee8ef"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABE1220D-06A4-4F97-A70F-0D90EAC761EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41606,23 +41627,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8DCF1D7-99F7-4202-82A6-46959FA5E53C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="18390984-f7d9-4502-80ba-82ec344db5fb"/>
-    <ds:schemaRef ds:uri="629dd2dc-abea-47e8-ba88-82202e3ee8ef"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EF1FD61-C2E6-4843-9418-343E38DCD8AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>